--- a/Berry Supplier LTD.xlsx
+++ b/Berry Supplier LTD.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Berry Supplier LTD" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +447,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ItemID</t>
+          <t>SupplierSKU</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -466,42 +462,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ShelfLife</t>
+          <t>SOH</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OrderFrequency</t>
+          <t>MinSOH</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SupplierSKU</t>
+          <t>MaxSOH</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>SOH</t>
+          <t>MOQ</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LastUpdated</t>
+          <t>OrderQty</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>MinSOH</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MaxSOH</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MOQ</t>
+          <t>OrderQty</t>
         </is>
       </c>
     </row>
@@ -515,7 +501,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>668530</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -526,28 +512,22 @@
         <v>870</v>
       </c>
       <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
-        <v>21</v>
-      </c>
       <c r="H2" t="n">
-        <v>668530</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>44072.40434027778</v>
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" t="n">
-        <v>30</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
